--- a/Code/Results/Cases/Case_5_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_119/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006038448968501</v>
+        <v>1.040667427109522</v>
       </c>
       <c r="D2">
-        <v>1.021940281065046</v>
+        <v>1.042112379478266</v>
       </c>
       <c r="E2">
-        <v>1.010907741865843</v>
+        <v>1.038958755264217</v>
       </c>
       <c r="F2">
-        <v>0.9832120424239847</v>
+        <v>1.039424397813519</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046363042358167</v>
+        <v>1.041318843429399</v>
       </c>
       <c r="J2">
-        <v>1.02804003899047</v>
+        <v>1.045752794676575</v>
       </c>
       <c r="K2">
-        <v>1.033102186328219</v>
+        <v>1.044889987376645</v>
       </c>
       <c r="L2">
-        <v>1.022217177675679</v>
+        <v>1.041745306298796</v>
       </c>
       <c r="M2">
-        <v>0.9949103230861069</v>
+        <v>1.04220962465886</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012943612188803</v>
+        <v>1.041984716831792</v>
       </c>
       <c r="D3">
-        <v>1.027186160877204</v>
+        <v>1.043114880628447</v>
       </c>
       <c r="E3">
-        <v>1.016675247909545</v>
+        <v>1.040095706977138</v>
       </c>
       <c r="F3">
-        <v>0.9928747622511607</v>
+        <v>1.041371098644692</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049239234730424</v>
+        <v>1.04177066314492</v>
       </c>
       <c r="J3">
-        <v>1.033087534529941</v>
+        <v>1.046713961725308</v>
       </c>
       <c r="K3">
-        <v>1.037482616429568</v>
+        <v>1.045702751054996</v>
       </c>
       <c r="L3">
-        <v>1.027099120696935</v>
+        <v>1.042691515913576</v>
       </c>
       <c r="M3">
-        <v>1.003599631024102</v>
+        <v>1.043963548044885</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017272212733875</v>
+        <v>1.042835418703603</v>
       </c>
       <c r="D4">
-        <v>1.030476472197936</v>
+        <v>1.043762072289577</v>
       </c>
       <c r="E4">
-        <v>1.0202952720806</v>
+        <v>1.040830049940092</v>
       </c>
       <c r="F4">
-        <v>0.9989217358116299</v>
+        <v>1.042628803438122</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051028456012262</v>
+        <v>1.042060812318833</v>
       </c>
       <c r="J4">
-        <v>1.036244180400396</v>
+        <v>1.047333774353137</v>
       </c>
       <c r="K4">
-        <v>1.040220477649062</v>
+        <v>1.046226564695277</v>
       </c>
       <c r="L4">
-        <v>1.030154769601352</v>
+        <v>1.043301860991411</v>
       </c>
       <c r="M4">
-        <v>1.00903319197651</v>
+        <v>1.045096119351156</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019060466633686</v>
+        <v>1.043192660025108</v>
       </c>
       <c r="D5">
-        <v>1.031836143792069</v>
+        <v>1.044033798447362</v>
       </c>
       <c r="E5">
-        <v>1.021791818828055</v>
+        <v>1.041138451802652</v>
       </c>
       <c r="F5">
-        <v>1.00141792921193</v>
+        <v>1.043157092659726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051764290518207</v>
+        <v>1.042182265077159</v>
       </c>
       <c r="J5">
-        <v>1.037546462519225</v>
+        <v>1.047593839600363</v>
       </c>
       <c r="K5">
-        <v>1.041349577779788</v>
+        <v>1.04644627771751</v>
       </c>
       <c r="L5">
-        <v>1.031415971773823</v>
+        <v>1.043557996199931</v>
       </c>
       <c r="M5">
-        <v>1.01127509973487</v>
+        <v>1.045571706786447</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01935892804669</v>
+        <v>1.043252619519143</v>
       </c>
       <c r="D6">
-        <v>1.032063093261594</v>
+        <v>1.044079401878086</v>
       </c>
       <c r="E6">
-        <v>1.02204165212631</v>
+        <v>1.041190215453555</v>
       </c>
       <c r="F6">
-        <v>1.001834444384895</v>
+        <v>1.043245768790876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051886904681975</v>
+        <v>1.042202626766662</v>
       </c>
       <c r="J6">
-        <v>1.037763707805989</v>
+        <v>1.047637476295208</v>
       </c>
       <c r="K6">
-        <v>1.041537908131231</v>
+        <v>1.046483139406332</v>
       </c>
       <c r="L6">
-        <v>1.031626398051081</v>
+        <v>1.043600975952237</v>
       </c>
       <c r="M6">
-        <v>1.011649120561512</v>
+        <v>1.045651528403996</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017296228808107</v>
+        <v>1.042840193718516</v>
       </c>
       <c r="D7">
-        <v>1.03049473113181</v>
+        <v>1.043765704490335</v>
       </c>
       <c r="E7">
-        <v>1.020315366599611</v>
+        <v>1.040834172055963</v>
       </c>
       <c r="F7">
-        <v>0.9989552666023634</v>
+        <v>1.042635864214066</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051038351460564</v>
+        <v>1.042062437239813</v>
       </c>
       <c r="J7">
-        <v>1.036261677106427</v>
+        <v>1.047337251331653</v>
       </c>
       <c r="K7">
-        <v>1.040235649244315</v>
+        <v>1.046229502463949</v>
       </c>
       <c r="L7">
-        <v>1.030171712085041</v>
+        <v>1.043305285260077</v>
       </c>
       <c r="M7">
-        <v>1.009063311301041</v>
+        <v>1.045102476300952</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008402170466035</v>
+        <v>1.04111296171713</v>
       </c>
       <c r="D8">
-        <v>1.023735563747918</v>
+        <v>1.042451491333662</v>
       </c>
       <c r="E8">
-        <v>1.012881013476315</v>
+        <v>1.039343274111386</v>
       </c>
       <c r="F8">
-        <v>0.9865221940090652</v>
+        <v>1.040082705246498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047350483324301</v>
+        <v>1.041471996936039</v>
       </c>
       <c r="J8">
-        <v>1.029769419685003</v>
+        <v>1.046078069050887</v>
       </c>
       <c r="K8">
-        <v>1.03460334068062</v>
+        <v>1.045165101793126</v>
       </c>
       <c r="L8">
-        <v>1.023889284951473</v>
+        <v>1.042065481842463</v>
       </c>
       <c r="M8">
-        <v>0.9978878796972329</v>
+        <v>1.042802862676393</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9915653146004411</v>
+        <v>1.038056246265958</v>
       </c>
       <c r="D9">
-        <v>1.010959623213603</v>
+        <v>1.040124043781676</v>
       </c>
       <c r="E9">
-        <v>0.998848705819368</v>
+        <v>1.036705623539756</v>
       </c>
       <c r="F9">
-        <v>0.9628754652288398</v>
+        <v>1.035568184804161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040258715976784</v>
+        <v>1.04041452839692</v>
       </c>
       <c r="J9">
-        <v>1.017419480071393</v>
+        <v>1.043842708239259</v>
       </c>
       <c r="K9">
-        <v>1.023877355944371</v>
+        <v>1.043273226828707</v>
       </c>
       <c r="L9">
-        <v>1.011960489626239</v>
+        <v>1.039865901199612</v>
       </c>
       <c r="M9">
-        <v>0.9766010189141499</v>
+        <v>1.038732171862284</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9794044994137056</v>
+        <v>1.036009196029881</v>
       </c>
       <c r="D10">
-        <v>1.001752001288121</v>
+        <v>1.038564310620093</v>
       </c>
       <c r="E10">
-        <v>0.9887479559881587</v>
+        <v>1.034939808845736</v>
       </c>
       <c r="F10">
-        <v>0.9456754622908471</v>
+        <v>1.032547133898603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035063464263289</v>
+        <v>1.039697919846801</v>
       </c>
       <c r="J10">
-        <v>1.008459773694872</v>
+        <v>1.042341032273725</v>
       </c>
       <c r="K10">
-        <v>1.016089694698369</v>
+        <v>1.04200077216447</v>
       </c>
       <c r="L10">
-        <v>1.003323385565869</v>
+        <v>1.038389199639641</v>
       </c>
       <c r="M10">
-        <v>0.9611000905504996</v>
+        <v>1.036005114688603</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9738755136272018</v>
+        <v>1.035120513878519</v>
       </c>
       <c r="D11">
-        <v>0.9975722084495463</v>
+        <v>1.037886944626094</v>
       </c>
       <c r="E11">
-        <v>0.9841653722201416</v>
+        <v>1.03417336824494</v>
       </c>
       <c r="F11">
-        <v>0.9378140480419891</v>
+        <v>1.031236080923096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032684602423022</v>
+        <v>1.039384822669034</v>
       </c>
       <c r="J11">
-        <v>1.004376986436578</v>
+        <v>1.041688003951532</v>
       </c>
       <c r="K11">
-        <v>1.012540055056699</v>
+        <v>1.041447067030392</v>
       </c>
       <c r="L11">
-        <v>0.9993922147769418</v>
+        <v>1.037747256663492</v>
       </c>
       <c r="M11">
-        <v>0.9540123800327999</v>
+        <v>1.034820935432875</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9717780955259858</v>
+        <v>1.034790064527948</v>
       </c>
       <c r="D12">
-        <v>0.9959877483246145</v>
+        <v>1.037635036067419</v>
       </c>
       <c r="E12">
-        <v>0.9824285946152264</v>
+        <v>1.033888396607717</v>
       </c>
       <c r="F12">
-        <v>0.9348242989955503</v>
+        <v>1.030748641132394</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031779706257082</v>
+        <v>1.039268100156659</v>
       </c>
       <c r="J12">
-        <v>1.002826815834114</v>
+        <v>1.041445014134921</v>
       </c>
       <c r="K12">
-        <v>1.011192222564288</v>
+        <v>1.041240981744084</v>
       </c>
       <c r="L12">
-        <v>0.9979003594109668</v>
+        <v>1.037508425649845</v>
       </c>
       <c r="M12">
-        <v>0.9513165765602223</v>
+        <v>1.03438055968523</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9722300503282931</v>
+        <v>1.034860963153893</v>
       </c>
       <c r="D13">
-        <v>0.996329115815048</v>
+        <v>1.037689085184315</v>
       </c>
       <c r="E13">
-        <v>0.9828027621795411</v>
+        <v>1.033949536831208</v>
       </c>
       <c r="F13">
-        <v>0.9354688977458656</v>
+        <v>1.030853219562464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031974805531017</v>
+        <v>1.039293156787416</v>
       </c>
       <c r="J13">
-        <v>1.003160910394453</v>
+        <v>1.041497155657988</v>
       </c>
       <c r="K13">
-        <v>1.011482712150107</v>
+        <v>1.041285206582548</v>
       </c>
       <c r="L13">
-        <v>0.9982218510381241</v>
+        <v>1.037559673223234</v>
       </c>
       <c r="M13">
-        <v>0.9518978108862856</v>
+        <v>1.034475045518973</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9737030582877672</v>
+        <v>1.035093206086204</v>
       </c>
       <c r="D14">
-        <v>0.9974419057386091</v>
+        <v>1.037866128033265</v>
       </c>
       <c r="E14">
-        <v>0.9840225358738196</v>
+        <v>1.034149818179457</v>
       </c>
       <c r="F14">
-        <v>0.9375683837329489</v>
+        <v>1.031195798411578</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032610249312337</v>
+        <v>1.039375183025125</v>
       </c>
       <c r="J14">
-        <v>1.00424955487969</v>
+        <v>1.041667927065723</v>
       </c>
       <c r="K14">
-        <v>1.012429258180479</v>
+        <v>1.041430040443885</v>
       </c>
       <c r="L14">
-        <v>0.9992695614961624</v>
+        <v>1.037727522702258</v>
       </c>
       <c r="M14">
-        <v>0.9537908741122468</v>
+        <v>1.034784544514906</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9746047005138029</v>
+        <v>1.035236251565663</v>
       </c>
       <c r="D15">
-        <v>0.9981232102503614</v>
+        <v>1.037975169438346</v>
       </c>
       <c r="E15">
-        <v>0.9847693890205871</v>
+        <v>1.03427318063917</v>
       </c>
       <c r="F15">
-        <v>0.9388524678941772</v>
+        <v>1.031406811537664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032998886848145</v>
+        <v>1.039425665771797</v>
       </c>
       <c r="J15">
-        <v>1.004915745407166</v>
+        <v>1.041773088320244</v>
       </c>
       <c r="K15">
-        <v>1.013008482098362</v>
+        <v>1.041519222274706</v>
       </c>
       <c r="L15">
-        <v>0.9999108027552375</v>
+        <v>1.037830889134815</v>
       </c>
       <c r="M15">
-        <v>0.9549486714021092</v>
+        <v>1.034975167820904</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9797655527604076</v>
+        <v>1.036068125859031</v>
       </c>
       <c r="D16">
-        <v>1.002025097559859</v>
+        <v>1.038609222748328</v>
       </c>
       <c r="E16">
-        <v>0.9890474220028381</v>
+        <v>1.034990635862002</v>
       </c>
       <c r="F16">
-        <v>0.9461878689336733</v>
+        <v>1.032634081160089</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035218465396731</v>
+        <v>1.039718639767267</v>
       </c>
       <c r="J16">
-        <v>1.008726198797341</v>
+        <v>1.042384312224516</v>
       </c>
       <c r="K16">
-        <v>1.016321313711529</v>
+        <v>1.042037461909385</v>
       </c>
       <c r="L16">
-        <v>1.003580016500456</v>
+        <v>1.038431749646674</v>
       </c>
       <c r="M16">
-        <v>0.9615620185693005</v>
+        <v>1.036083632898729</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9829295920105522</v>
+        <v>1.036589318114724</v>
       </c>
       <c r="D17">
-        <v>1.004419087909765</v>
+        <v>1.039006410655935</v>
       </c>
       <c r="E17">
-        <v>0.9916728670779917</v>
+        <v>1.035440181838919</v>
       </c>
       <c r="F17">
-        <v>0.9506734869555717</v>
+        <v>1.03340312112418</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036574909438465</v>
+        <v>1.039901662282845</v>
       </c>
       <c r="J17">
-        <v>1.011059943415946</v>
+        <v>1.042766964608901</v>
       </c>
       <c r="K17">
-        <v>1.018350075635474</v>
+        <v>1.04236180694764</v>
       </c>
       <c r="L17">
-        <v>1.005828493608377</v>
+        <v>1.03880797429517</v>
       </c>
       <c r="M17">
-        <v>0.9656054365587572</v>
+        <v>1.036778036665955</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9847500318520876</v>
+        <v>1.036893099784541</v>
       </c>
       <c r="D18">
-        <v>1.005797075822847</v>
+        <v>1.039237891892187</v>
       </c>
       <c r="E18">
-        <v>0.9931843307136213</v>
+        <v>1.035702218151954</v>
       </c>
       <c r="F18">
-        <v>0.9532505247634592</v>
+        <v>1.033851408800259</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037353765564711</v>
+        <v>1.040008146205442</v>
       </c>
       <c r="J18">
-        <v>1.01240180749145</v>
+        <v>1.042989890253042</v>
       </c>
       <c r="K18">
-        <v>1.01951648887014</v>
+        <v>1.042550729469562</v>
       </c>
       <c r="L18">
-        <v>1.007121757809716</v>
+        <v>1.039027176891571</v>
       </c>
       <c r="M18">
-        <v>0.9679281475822074</v>
+        <v>1.037182748945907</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9853666151342192</v>
+        <v>1.036996644255387</v>
       </c>
       <c r="D19">
-        <v>1.006263897433487</v>
+        <v>1.039316788653007</v>
       </c>
       <c r="E19">
-        <v>0.9936964130585416</v>
+        <v>1.035791536059202</v>
       </c>
       <c r="F19">
-        <v>0.9541227624551997</v>
+        <v>1.03400421630555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037617295140006</v>
+        <v>1.040044408776438</v>
       </c>
       <c r="J19">
-        <v>1.012856150150028</v>
+        <v>1.043065856700581</v>
       </c>
       <c r="K19">
-        <v>1.019911408702784</v>
+        <v>1.042615102810815</v>
       </c>
       <c r="L19">
-        <v>1.007559716008569</v>
+        <v>1.039101878296382</v>
       </c>
       <c r="M19">
-        <v>0.96871425383075</v>
+        <v>1.037320691299053</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9825927438192187</v>
+        <v>1.036533422034409</v>
       </c>
       <c r="D20">
-        <v>1.004164156938149</v>
+        <v>1.038963816027171</v>
       </c>
       <c r="E20">
-        <v>0.9913932632018768</v>
+        <v>1.035391968087813</v>
       </c>
       <c r="F20">
-        <v>0.9501963428113182</v>
+        <v>1.033320639542132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036430664203048</v>
+        <v>1.039882053653762</v>
       </c>
       <c r="J20">
-        <v>1.010811579221847</v>
+        <v>1.042725937503237</v>
       </c>
       <c r="K20">
-        <v>1.018134177744203</v>
+        <v>1.042327034980832</v>
       </c>
       <c r="L20">
-        <v>1.005589159009735</v>
+        <v>1.038767634117387</v>
       </c>
       <c r="M20">
-        <v>0.965175358169207</v>
+        <v>1.036703567107399</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.973270537231229</v>
+        <v>1.035024826149077</v>
       </c>
       <c r="D21">
-        <v>0.9971151231699112</v>
+        <v>1.03781400178179</v>
       </c>
       <c r="E21">
-        <v>0.9836643264179797</v>
+        <v>1.034090848135658</v>
       </c>
       <c r="F21">
-        <v>0.9369521274548979</v>
+        <v>1.031094930221273</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032423730771013</v>
+        <v>1.039351040082806</v>
       </c>
       <c r="J21">
-        <v>1.003929932345326</v>
+        <v>1.041617650954882</v>
       </c>
       <c r="K21">
-        <v>1.012151357324406</v>
+        <v>1.041387401968056</v>
       </c>
       <c r="L21">
-        <v>0.998961936021479</v>
+        <v>1.037678105885246</v>
       </c>
       <c r="M21">
-        <v>0.9532352155633116</v>
+        <v>1.034693419228411</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9671538706262979</v>
+        <v>1.034074264189099</v>
       </c>
       <c r="D22">
-        <v>0.9924967610914631</v>
+        <v>1.037089302441055</v>
       </c>
       <c r="E22">
-        <v>0.9786026657515882</v>
+        <v>1.033271150675078</v>
       </c>
       <c r="F22">
-        <v>0.928217153861541</v>
+        <v>1.029692889174026</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780145340744</v>
+        <v>1.039014714278976</v>
       </c>
       <c r="J22">
-        <v>0.9994066084879214</v>
+        <v>1.040918359145933</v>
       </c>
       <c r="K22">
-        <v>1.008218338566891</v>
+        <v>1.040794216293978</v>
       </c>
       <c r="L22">
-        <v>0.9946102687687089</v>
+        <v>1.036990846843737</v>
       </c>
       <c r="M22">
-        <v>0.9453586477201973</v>
+        <v>1.033426549442883</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9704222043870054</v>
+        <v>1.034578371972071</v>
       </c>
       <c r="D23">
-        <v>0.994963806764865</v>
+        <v>1.037473648474435</v>
       </c>
       <c r="E23">
-        <v>0.9813063205639351</v>
+        <v>1.033705844613078</v>
       </c>
       <c r="F23">
-        <v>0.9328892463160666</v>
+        <v>1.030436394815041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031194037848003</v>
+        <v>1.039193240965555</v>
       </c>
       <c r="J23">
-        <v>1.001824312938746</v>
+        <v>1.041289303077602</v>
       </c>
       <c r="K23">
-        <v>1.010320554308038</v>
+        <v>1.04110890462836</v>
       </c>
       <c r="L23">
-        <v>0.9969357881588741</v>
+        <v>1.037355389200487</v>
       </c>
       <c r="M23">
-        <v>0.949571708396881</v>
+        <v>1.034098431858138</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9827450282489936</v>
+        <v>1.036558679749094</v>
       </c>
       <c r="D24">
-        <v>1.004279405873799</v>
+        <v>1.038983063298488</v>
       </c>
       <c r="E24">
-        <v>0.9915196654613272</v>
+        <v>1.035413754350675</v>
       </c>
       <c r="F24">
-        <v>0.9504120647541965</v>
+        <v>1.033357910282996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036495880396928</v>
+        <v>1.039890914783202</v>
       </c>
       <c r="J24">
-        <v>1.010923863938766</v>
+        <v>1.042744476716958</v>
       </c>
       <c r="K24">
-        <v>1.018231784827981</v>
+        <v>1.042342747746373</v>
       </c>
       <c r="L24">
-        <v>1.00569736014817</v>
+        <v>1.038785862857248</v>
       </c>
       <c r="M24">
-        <v>0.9653698020574291</v>
+        <v>1.036737217687711</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9960706307067403</v>
+        <v>1.038848077759144</v>
       </c>
       <c r="D25">
-        <v>1.014375399232222</v>
+        <v>1.040727152142898</v>
       </c>
       <c r="E25">
-        <v>1.002598202107507</v>
+        <v>1.03738879653661</v>
       </c>
       <c r="F25">
-        <v>0.9692198808227177</v>
+        <v>1.036737232004906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042168934604861</v>
+        <v>1.040689946237862</v>
       </c>
       <c r="J25">
-        <v>1.020730961295028</v>
+        <v>1.044422593942828</v>
       </c>
       <c r="K25">
-        <v>1.026754580298064</v>
+        <v>1.043764276874556</v>
       </c>
       <c r="L25">
-        <v>1.015156317787654</v>
+        <v>1.040436341041456</v>
       </c>
       <c r="M25">
-        <v>0.982315582494794</v>
+        <v>1.039786818744906</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_119/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040667427109522</v>
+        <v>1.006038448968503</v>
       </c>
       <c r="D2">
-        <v>1.042112379478266</v>
+        <v>1.021940281065048</v>
       </c>
       <c r="E2">
-        <v>1.038958755264217</v>
+        <v>1.010907741865843</v>
       </c>
       <c r="F2">
-        <v>1.039424397813519</v>
+        <v>0.9832120424239869</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041318843429399</v>
+        <v>1.046363042358168</v>
       </c>
       <c r="J2">
-        <v>1.045752794676575</v>
+        <v>1.028040038990471</v>
       </c>
       <c r="K2">
-        <v>1.044889987376645</v>
+        <v>1.033102186328219</v>
       </c>
       <c r="L2">
-        <v>1.041745306298796</v>
+        <v>1.02221717767568</v>
       </c>
       <c r="M2">
-        <v>1.04220962465886</v>
+        <v>0.9949103230861087</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041984716831792</v>
+        <v>1.012943612188803</v>
       </c>
       <c r="D3">
-        <v>1.043114880628447</v>
+        <v>1.027186160877205</v>
       </c>
       <c r="E3">
-        <v>1.040095706977138</v>
+        <v>1.016675247909545</v>
       </c>
       <c r="F3">
-        <v>1.041371098644692</v>
+        <v>0.9928747622511609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04177066314492</v>
+        <v>1.049239234730424</v>
       </c>
       <c r="J3">
-        <v>1.046713961725308</v>
+        <v>1.033087534529941</v>
       </c>
       <c r="K3">
-        <v>1.045702751054996</v>
+        <v>1.037482616429569</v>
       </c>
       <c r="L3">
-        <v>1.042691515913576</v>
+        <v>1.027099120696935</v>
       </c>
       <c r="M3">
-        <v>1.043963548044885</v>
+        <v>1.003599631024102</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042835418703603</v>
+        <v>1.017272212733878</v>
       </c>
       <c r="D4">
-        <v>1.043762072289577</v>
+        <v>1.030476472197939</v>
       </c>
       <c r="E4">
-        <v>1.040830049940092</v>
+        <v>1.020295272080603</v>
       </c>
       <c r="F4">
-        <v>1.042628803438122</v>
+        <v>0.9989217358116323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042060812318833</v>
+        <v>1.051028456012264</v>
       </c>
       <c r="J4">
-        <v>1.047333774353137</v>
+        <v>1.036244180400399</v>
       </c>
       <c r="K4">
-        <v>1.046226564695277</v>
+        <v>1.040220477649065</v>
       </c>
       <c r="L4">
-        <v>1.043301860991411</v>
+        <v>1.030154769601354</v>
       </c>
       <c r="M4">
-        <v>1.045096119351156</v>
+        <v>1.009033191976513</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043192660025108</v>
+        <v>1.019060466633687</v>
       </c>
       <c r="D5">
-        <v>1.044033798447362</v>
+        <v>1.031836143792069</v>
       </c>
       <c r="E5">
-        <v>1.041138451802652</v>
+        <v>1.021791818828055</v>
       </c>
       <c r="F5">
-        <v>1.043157092659726</v>
+        <v>1.001417929211931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042182265077159</v>
+        <v>1.051764290518208</v>
       </c>
       <c r="J5">
-        <v>1.047593839600363</v>
+        <v>1.037546462519226</v>
       </c>
       <c r="K5">
-        <v>1.04644627771751</v>
+        <v>1.041349577779789</v>
       </c>
       <c r="L5">
-        <v>1.043557996199931</v>
+        <v>1.031415971773823</v>
       </c>
       <c r="M5">
-        <v>1.045571706786447</v>
+        <v>1.01127509973487</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043252619519143</v>
+        <v>1.019358928046689</v>
       </c>
       <c r="D6">
-        <v>1.044079401878086</v>
+        <v>1.032063093261592</v>
       </c>
       <c r="E6">
-        <v>1.041190215453555</v>
+        <v>1.022041652126309</v>
       </c>
       <c r="F6">
-        <v>1.043245768790876</v>
+        <v>1.001834444384893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042202626766662</v>
+        <v>1.051886904681975</v>
       </c>
       <c r="J6">
-        <v>1.047637476295208</v>
+        <v>1.037763707805988</v>
       </c>
       <c r="K6">
-        <v>1.046483139406332</v>
+        <v>1.041537908131229</v>
       </c>
       <c r="L6">
-        <v>1.043600975952237</v>
+        <v>1.03162639805108</v>
       </c>
       <c r="M6">
-        <v>1.045651528403996</v>
+        <v>1.011649120561511</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042840193718516</v>
+        <v>1.017296228808106</v>
       </c>
       <c r="D7">
-        <v>1.043765704490335</v>
+        <v>1.030494731131809</v>
       </c>
       <c r="E7">
-        <v>1.040834172055963</v>
+        <v>1.020315366599611</v>
       </c>
       <c r="F7">
-        <v>1.042635864214066</v>
+        <v>0.9989552666023623</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042062437239813</v>
+        <v>1.051038351460563</v>
       </c>
       <c r="J7">
-        <v>1.047337251331653</v>
+        <v>1.036261677106426</v>
       </c>
       <c r="K7">
-        <v>1.046229502463949</v>
+        <v>1.040235649244315</v>
       </c>
       <c r="L7">
-        <v>1.043305285260077</v>
+        <v>1.03017171208504</v>
       </c>
       <c r="M7">
-        <v>1.045102476300952</v>
+        <v>1.009063311301039</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04111296171713</v>
+        <v>1.008402170466035</v>
       </c>
       <c r="D8">
-        <v>1.042451491333662</v>
+        <v>1.023735563747918</v>
       </c>
       <c r="E8">
-        <v>1.039343274111386</v>
+        <v>1.012881013476314</v>
       </c>
       <c r="F8">
-        <v>1.040082705246498</v>
+        <v>0.9865221940090646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041471996936039</v>
+        <v>1.0473504833243</v>
       </c>
       <c r="J8">
-        <v>1.046078069050887</v>
+        <v>1.029769419685003</v>
       </c>
       <c r="K8">
-        <v>1.045165101793126</v>
+        <v>1.03460334068062</v>
       </c>
       <c r="L8">
-        <v>1.042065481842463</v>
+        <v>1.023889284951472</v>
       </c>
       <c r="M8">
-        <v>1.042802862676393</v>
+        <v>0.9978878796972325</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038056246265958</v>
+        <v>0.9915653146004384</v>
       </c>
       <c r="D9">
-        <v>1.040124043781676</v>
+        <v>1.010959623213601</v>
       </c>
       <c r="E9">
-        <v>1.036705623539756</v>
+        <v>0.9988487058193652</v>
       </c>
       <c r="F9">
-        <v>1.035568184804161</v>
+        <v>0.9628754652288366</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04041452839692</v>
+        <v>1.040258715976783</v>
       </c>
       <c r="J9">
-        <v>1.043842708239259</v>
+        <v>1.01741948007139</v>
       </c>
       <c r="K9">
-        <v>1.043273226828707</v>
+        <v>1.023877355944368</v>
       </c>
       <c r="L9">
-        <v>1.039865901199612</v>
+        <v>1.011960489626236</v>
       </c>
       <c r="M9">
-        <v>1.038732171862284</v>
+        <v>0.9766010189141465</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036009196029881</v>
+        <v>0.9794044994137044</v>
       </c>
       <c r="D10">
-        <v>1.038564310620093</v>
+        <v>1.001752001288119</v>
       </c>
       <c r="E10">
-        <v>1.034939808845736</v>
+        <v>0.9887479559881576</v>
       </c>
       <c r="F10">
-        <v>1.032547133898603</v>
+        <v>0.9456754622908456</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039697919846801</v>
+        <v>1.035063464263289</v>
       </c>
       <c r="J10">
-        <v>1.042341032273725</v>
+        <v>1.008459773694871</v>
       </c>
       <c r="K10">
-        <v>1.04200077216447</v>
+        <v>1.016089694698367</v>
       </c>
       <c r="L10">
-        <v>1.038389199639641</v>
+        <v>1.003323385565868</v>
       </c>
       <c r="M10">
-        <v>1.036005114688603</v>
+        <v>0.9611000905504981</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035120513878519</v>
+        <v>0.9738755136272021</v>
       </c>
       <c r="D11">
-        <v>1.037886944626094</v>
+        <v>0.9975722084495462</v>
       </c>
       <c r="E11">
-        <v>1.03417336824494</v>
+        <v>0.9841653722201419</v>
       </c>
       <c r="F11">
-        <v>1.031236080923096</v>
+        <v>0.9378140480419889</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039384822669034</v>
+        <v>1.032684602423021</v>
       </c>
       <c r="J11">
-        <v>1.041688003951532</v>
+        <v>1.004376986436578</v>
       </c>
       <c r="K11">
-        <v>1.041447067030392</v>
+        <v>1.012540055056699</v>
       </c>
       <c r="L11">
-        <v>1.037747256663492</v>
+        <v>0.9993922147769421</v>
       </c>
       <c r="M11">
-        <v>1.034820935432875</v>
+        <v>0.9540123800327998</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034790064527948</v>
+        <v>0.9717780955259855</v>
       </c>
       <c r="D12">
-        <v>1.037635036067419</v>
+        <v>0.9959877483246145</v>
       </c>
       <c r="E12">
-        <v>1.033888396607717</v>
+        <v>0.9824285946152261</v>
       </c>
       <c r="F12">
-        <v>1.030748641132394</v>
+        <v>0.93482429899555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039268100156659</v>
+        <v>1.031779706257082</v>
       </c>
       <c r="J12">
-        <v>1.041445014134921</v>
+        <v>1.002826815834114</v>
       </c>
       <c r="K12">
-        <v>1.041240981744084</v>
+        <v>1.011192222564288</v>
       </c>
       <c r="L12">
-        <v>1.037508425649845</v>
+        <v>0.9979003594109664</v>
       </c>
       <c r="M12">
-        <v>1.03438055968523</v>
+        <v>0.9513165765602219</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034860963153893</v>
+        <v>0.9722300503282935</v>
       </c>
       <c r="D13">
-        <v>1.037689085184315</v>
+        <v>0.9963291158150482</v>
       </c>
       <c r="E13">
-        <v>1.033949536831208</v>
+        <v>0.9828027621795415</v>
       </c>
       <c r="F13">
-        <v>1.030853219562464</v>
+        <v>0.9354688977458665</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039293156787416</v>
+        <v>1.031974805531017</v>
       </c>
       <c r="J13">
-        <v>1.041497155657988</v>
+        <v>1.003160910394453</v>
       </c>
       <c r="K13">
-        <v>1.041285206582548</v>
+        <v>1.011482712150107</v>
       </c>
       <c r="L13">
-        <v>1.037559673223234</v>
+        <v>0.9982218510381246</v>
       </c>
       <c r="M13">
-        <v>1.034475045518973</v>
+        <v>0.9518978108862864</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035093206086204</v>
+        <v>0.973703058287768</v>
       </c>
       <c r="D14">
-        <v>1.037866128033265</v>
+        <v>0.9974419057386104</v>
       </c>
       <c r="E14">
-        <v>1.034149818179457</v>
+        <v>0.9840225358738205</v>
       </c>
       <c r="F14">
-        <v>1.031195798411578</v>
+        <v>0.9375683837329498</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039375183025125</v>
+        <v>1.032610249312338</v>
       </c>
       <c r="J14">
-        <v>1.041667927065723</v>
+        <v>1.004249554879691</v>
       </c>
       <c r="K14">
-        <v>1.041430040443885</v>
+        <v>1.01242925818048</v>
       </c>
       <c r="L14">
-        <v>1.037727522702258</v>
+        <v>0.9992695614961632</v>
       </c>
       <c r="M14">
-        <v>1.034784544514906</v>
+        <v>0.9537908741122477</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035236251565663</v>
+        <v>0.9746047005137992</v>
       </c>
       <c r="D15">
-        <v>1.037975169438346</v>
+        <v>0.9981232102503581</v>
       </c>
       <c r="E15">
-        <v>1.03427318063917</v>
+        <v>0.9847693890205839</v>
       </c>
       <c r="F15">
-        <v>1.031406811537664</v>
+        <v>0.9388524678941729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039425665771797</v>
+        <v>1.032998886848143</v>
       </c>
       <c r="J15">
-        <v>1.041773088320244</v>
+        <v>1.004915745407163</v>
       </c>
       <c r="K15">
-        <v>1.041519222274706</v>
+        <v>1.013008482098359</v>
       </c>
       <c r="L15">
-        <v>1.037830889134815</v>
+        <v>0.9999108027552343</v>
       </c>
       <c r="M15">
-        <v>1.034975167820904</v>
+        <v>0.954948671402105</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036068125859031</v>
+        <v>0.9797655527604068</v>
       </c>
       <c r="D16">
-        <v>1.038609222748328</v>
+        <v>1.002025097559857</v>
       </c>
       <c r="E16">
-        <v>1.034990635862002</v>
+        <v>0.9890474220028375</v>
       </c>
       <c r="F16">
-        <v>1.032634081160089</v>
+        <v>0.946187868933672</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039718639767267</v>
+        <v>1.035218465396731</v>
       </c>
       <c r="J16">
-        <v>1.042384312224516</v>
+        <v>1.008726198797341</v>
       </c>
       <c r="K16">
-        <v>1.042037461909385</v>
+        <v>1.016321313711528</v>
       </c>
       <c r="L16">
-        <v>1.038431749646674</v>
+        <v>1.003580016500456</v>
       </c>
       <c r="M16">
-        <v>1.036083632898729</v>
+        <v>0.9615620185692995</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036589318114724</v>
+        <v>0.982929592010554</v>
       </c>
       <c r="D17">
-        <v>1.039006410655935</v>
+        <v>1.004419087909767</v>
       </c>
       <c r="E17">
-        <v>1.035440181838919</v>
+        <v>0.9916728670779933</v>
       </c>
       <c r="F17">
-        <v>1.03340312112418</v>
+        <v>0.9506734869555734</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039901662282845</v>
+        <v>1.036574909438467</v>
       </c>
       <c r="J17">
-        <v>1.042766964608901</v>
+        <v>1.011059943415948</v>
       </c>
       <c r="K17">
-        <v>1.04236180694764</v>
+        <v>1.018350075635476</v>
       </c>
       <c r="L17">
-        <v>1.03880797429517</v>
+        <v>1.005828493608378</v>
       </c>
       <c r="M17">
-        <v>1.036778036665955</v>
+        <v>0.9656054365587592</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036893099784541</v>
+        <v>0.9847500318520866</v>
       </c>
       <c r="D18">
-        <v>1.039237891892187</v>
+        <v>1.005797075822846</v>
       </c>
       <c r="E18">
-        <v>1.035702218151954</v>
+        <v>0.9931843307136206</v>
       </c>
       <c r="F18">
-        <v>1.033851408800259</v>
+        <v>0.9532505247634585</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040008146205442</v>
+        <v>1.037353765564711</v>
       </c>
       <c r="J18">
-        <v>1.042989890253042</v>
+        <v>1.01240180749145</v>
       </c>
       <c r="K18">
-        <v>1.042550729469562</v>
+        <v>1.01951648887014</v>
       </c>
       <c r="L18">
-        <v>1.039027176891571</v>
+        <v>1.007121757809715</v>
       </c>
       <c r="M18">
-        <v>1.037182748945907</v>
+        <v>0.9679281475822067</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036996644255387</v>
+        <v>0.9853666151342183</v>
       </c>
       <c r="D19">
-        <v>1.039316788653007</v>
+        <v>1.006263897433486</v>
       </c>
       <c r="E19">
-        <v>1.035791536059202</v>
+        <v>0.9936964130585411</v>
       </c>
       <c r="F19">
-        <v>1.03400421630555</v>
+        <v>0.9541227624551987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040044408776438</v>
+        <v>1.037617295140006</v>
       </c>
       <c r="J19">
-        <v>1.043065856700581</v>
+        <v>1.012856150150028</v>
       </c>
       <c r="K19">
-        <v>1.042615102810815</v>
+        <v>1.019911408702784</v>
       </c>
       <c r="L19">
-        <v>1.039101878296382</v>
+        <v>1.007559716008568</v>
       </c>
       <c r="M19">
-        <v>1.037320691299053</v>
+        <v>0.9687142538307491</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036533422034409</v>
+        <v>0.9825927438192201</v>
       </c>
       <c r="D20">
-        <v>1.038963816027171</v>
+        <v>1.00416415693815</v>
       </c>
       <c r="E20">
-        <v>1.035391968087813</v>
+        <v>0.9913932632018777</v>
       </c>
       <c r="F20">
-        <v>1.033320639542132</v>
+        <v>0.9501963428113197</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039882053653762</v>
+        <v>1.036430664203049</v>
       </c>
       <c r="J20">
-        <v>1.042725937503237</v>
+        <v>1.010811579221848</v>
       </c>
       <c r="K20">
-        <v>1.042327034980832</v>
+        <v>1.018134177744204</v>
       </c>
       <c r="L20">
-        <v>1.038767634117387</v>
+        <v>1.005589159009737</v>
       </c>
       <c r="M20">
-        <v>1.036703567107399</v>
+        <v>0.9651753581692086</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035024826149077</v>
+        <v>0.9732705372312274</v>
       </c>
       <c r="D21">
-        <v>1.03781400178179</v>
+        <v>0.9971151231699099</v>
       </c>
       <c r="E21">
-        <v>1.034090848135658</v>
+        <v>0.9836643264179786</v>
       </c>
       <c r="F21">
-        <v>1.031094930221273</v>
+        <v>0.9369521274548962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039351040082806</v>
+        <v>1.032423730771012</v>
       </c>
       <c r="J21">
-        <v>1.041617650954882</v>
+        <v>1.003929932345325</v>
       </c>
       <c r="K21">
-        <v>1.041387401968056</v>
+        <v>1.012151357324405</v>
       </c>
       <c r="L21">
-        <v>1.037678105885246</v>
+        <v>0.9989619360214776</v>
       </c>
       <c r="M21">
-        <v>1.034693419228411</v>
+        <v>0.95323521556331</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034074264189099</v>
+        <v>0.9671538706262961</v>
       </c>
       <c r="D22">
-        <v>1.037089302441055</v>
+        <v>0.9924967610914617</v>
       </c>
       <c r="E22">
-        <v>1.033271150675078</v>
+        <v>0.9786026657515866</v>
       </c>
       <c r="F22">
-        <v>1.029692889174026</v>
+        <v>0.9282171538615386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039014714278976</v>
+        <v>1.029780145340743</v>
       </c>
       <c r="J22">
-        <v>1.040918359145933</v>
+        <v>0.9994066084879198</v>
       </c>
       <c r="K22">
-        <v>1.040794216293978</v>
+        <v>1.00821833856689</v>
       </c>
       <c r="L22">
-        <v>1.036990846843737</v>
+        <v>0.9946102687687072</v>
       </c>
       <c r="M22">
-        <v>1.033426549442883</v>
+        <v>0.945358647720195</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034578371972071</v>
+        <v>0.9704222043870052</v>
       </c>
       <c r="D23">
-        <v>1.037473648474435</v>
+        <v>0.9949638067648648</v>
       </c>
       <c r="E23">
-        <v>1.033705844613078</v>
+        <v>0.981306320563935</v>
       </c>
       <c r="F23">
-        <v>1.030436394815041</v>
+        <v>0.9328892463160667</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039193240965555</v>
+        <v>1.031194037848003</v>
       </c>
       <c r="J23">
-        <v>1.041289303077602</v>
+        <v>1.001824312938746</v>
       </c>
       <c r="K23">
-        <v>1.04110890462836</v>
+        <v>1.010320554308038</v>
       </c>
       <c r="L23">
-        <v>1.037355389200487</v>
+        <v>0.9969357881588737</v>
       </c>
       <c r="M23">
-        <v>1.034098431858138</v>
+        <v>0.949571708396881</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036558679749094</v>
+        <v>0.9827450282489945</v>
       </c>
       <c r="D24">
-        <v>1.038983063298488</v>
+        <v>1.0042794058738</v>
       </c>
       <c r="E24">
-        <v>1.035413754350675</v>
+        <v>0.9915196654613276</v>
       </c>
       <c r="F24">
-        <v>1.033357910282996</v>
+        <v>0.9504120647541968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039890914783202</v>
+        <v>1.036495880396929</v>
       </c>
       <c r="J24">
-        <v>1.042744476716958</v>
+        <v>1.010923863938767</v>
       </c>
       <c r="K24">
-        <v>1.042342747746373</v>
+        <v>1.018231784827982</v>
       </c>
       <c r="L24">
-        <v>1.038785862857248</v>
+        <v>1.005697360148171</v>
       </c>
       <c r="M24">
-        <v>1.036737217687711</v>
+        <v>0.9653698020574296</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038848077759144</v>
+        <v>0.9960706307067393</v>
       </c>
       <c r="D25">
-        <v>1.040727152142898</v>
+        <v>1.014375399232221</v>
       </c>
       <c r="E25">
-        <v>1.03738879653661</v>
+        <v>1.002598202107506</v>
       </c>
       <c r="F25">
-        <v>1.036737232004906</v>
+        <v>0.9692198808227167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040689946237862</v>
+        <v>1.042168934604861</v>
       </c>
       <c r="J25">
-        <v>1.044422593942828</v>
+        <v>1.020730961295027</v>
       </c>
       <c r="K25">
-        <v>1.043764276874556</v>
+        <v>1.026754580298063</v>
       </c>
       <c r="L25">
-        <v>1.040436341041456</v>
+        <v>1.015156317787652</v>
       </c>
       <c r="M25">
-        <v>1.039786818744906</v>
+        <v>0.9823155824947931</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
